--- a/data/trans_orig/P78_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78_n_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D4DDF8-E569-4468-A6EC-2546382CB897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D4F7A5-AB01-42BC-8866-C4255DD9F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2640B7C3-CD52-4A47-8945-399BA501EE3A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{28067D60-D226-4421-A6A2-88523D627D74}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="247">
   <si>
     <t>Población con más de dos retrasos en pagos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -254,7 +254,16 @@
     <t>Población con más de dos retrasos en pagos en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -269,39 +278,51 @@
     <t>99,4%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,75%</t>
   </si>
   <si>
@@ -365,406 +386,400 @@
     <t>Población con más de dos retrasos en pagos en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
   </si>
   <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438D1AD6-C1AC-42F9-B402-DF80F7AA72E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C84E7F-C4F1-47D5-A6B2-FE347CC7775A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2588,7 +2603,7 @@
         <v>3214</v>
       </c>
       <c r="D29" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -2603,7 +2618,7 @@
         <v>3297</v>
       </c>
       <c r="I29" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>17</v>
@@ -2618,7 +2633,7 @@
         <v>6511</v>
       </c>
       <c r="N29" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>17</v>
@@ -2639,7 +2654,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2654,7 +2669,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2669,7 +2684,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2707,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52155BC-60A0-40E9-9FA4-75530C661D5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5CF7B2-161B-4C79-A783-27899FA0F0F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2827,12 +2842,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>71</v>
@@ -2840,28 +2857,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,43 +2891,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D5" s="7">
+        <v>294738</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I5" s="7">
+        <v>287245</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N5" s="7">
+        <v>581983</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,43 +2942,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3037,7 +3070,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3129,7 +3162,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3144,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3177,7 +3210,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3192,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3284,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3299,7 +3332,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3314,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,46 +3356,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D14" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I14" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N14" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3374,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3389,10 +3422,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3404,10 +3437,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3439,7 +3472,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3454,7 +3487,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3487,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3502,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3594,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3642,7 +3675,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -3779,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3860,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3904,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3919,7 +3952,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3952,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -3967,7 +4000,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -4220,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E8FA30-1BFE-4DF4-88F0-F363C3CF01E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76020281-03F3-4A73-8B9E-B64B3329912F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4237,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4365,7 +4398,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4380,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,7 +4446,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4428,7 +4461,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4505,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4520,7 +4553,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4553,7 +4586,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4568,7 +4601,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4675,7 +4708,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4690,7 +4723,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4756,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4738,7 +4771,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4815,7 +4848,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4845,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,7 +4896,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4893,7 +4926,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4970,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4985,7 +5018,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5000,7 +5033,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,7 +5051,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -5033,7 +5066,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5048,7 +5081,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5125,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5140,7 +5173,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5173,7 +5206,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -5188,7 +5221,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -5280,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5328,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -5450,7 +5483,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5498,7 +5531,7 @@
         <v>17</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>19</v>
@@ -5751,7 +5784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97092E50-9EF2-49F8-A0FF-D5E6D4B39B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3F43AB-ACAC-4EDB-B8F4-D7F360AC2EE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5768,7 +5801,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5872,46 +5905,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3442</v>
+        <v>5465</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4234</v>
+        <v>6303</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5923,13 +5956,13 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259506</v>
+        <v>310605</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -5938,13 +5971,13 @@
         <v>536</v>
       </c>
       <c r="I5" s="7">
-        <v>267961</v>
+        <v>284170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -5953,16 +5986,16 @@
         <v>866</v>
       </c>
       <c r="N5" s="7">
-        <v>527466</v>
+        <v>594774</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +6007,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5989,7 +6022,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -6004,7 +6037,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -6027,46 +6060,46 @@
         <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>19812</v>
+        <v>20013</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>16777</v>
+        <v>15613</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>36588</v>
+        <v>35625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,46 +6111,46 @@
         <v>369</v>
       </c>
       <c r="D8" s="7">
-        <v>499485</v>
+        <v>498377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H8" s="7">
         <v>695</v>
       </c>
       <c r="I8" s="7">
-        <v>537789</v>
+        <v>499356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>1064</v>
       </c>
       <c r="N8" s="7">
-        <v>1037276</v>
+        <v>997734</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,7 +6162,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -6144,7 +6177,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -6159,7 +6192,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -6182,46 +6215,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>6911</v>
+        <v>6818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>8950</v>
+        <v>8464</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>15860</v>
+        <v>15282</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,46 +6266,46 @@
         <v>353</v>
       </c>
       <c r="D11" s="7">
-        <v>315329</v>
+        <v>309232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>525</v>
       </c>
       <c r="I11" s="7">
-        <v>364334</v>
+        <v>340664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
       </c>
       <c r="N11" s="7">
-        <v>679664</v>
+        <v>649896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,7 +6317,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -6299,7 +6332,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -6314,7 +6347,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -6337,46 +6370,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4534</v>
+        <v>4237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>13234</v>
+        <v>12263</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>17768</v>
+        <v>16500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,46 +6421,46 @@
         <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>317706</v>
+        <v>308320</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>586</v>
       </c>
       <c r="I14" s="7">
-        <v>415322</v>
+        <v>463455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>873</v>
       </c>
       <c r="N14" s="7">
-        <v>733028</v>
+        <v>771774</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6472,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -6454,7 +6487,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -6469,7 +6502,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -6492,46 +6525,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1139</v>
+        <v>1034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>868</v>
+        <v>792</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2006</v>
+        <v>1826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6576,13 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195609</v>
+        <v>177708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -6558,13 +6591,13 @@
         <v>493</v>
       </c>
       <c r="I17" s="7">
-        <v>258645</v>
+        <v>257987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -6573,16 +6606,16 @@
         <v>770</v>
       </c>
       <c r="N17" s="7">
-        <v>454254</v>
+        <v>435695</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,7 +6627,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -6609,7 +6642,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -6624,7 +6657,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -6647,46 +6680,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>5042</v>
+        <v>4957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
       </c>
       <c r="I19" s="7">
-        <v>6548</v>
+        <v>6097</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
       </c>
       <c r="N19" s="7">
-        <v>11590</v>
+        <v>11054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,46 +6731,46 @@
         <v>364</v>
       </c>
       <c r="D20" s="7">
-        <v>272181</v>
+        <v>264679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>449</v>
       </c>
       <c r="I20" s="7">
-        <v>269074</v>
+        <v>250959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>813</v>
       </c>
       <c r="N20" s="7">
-        <v>541255</v>
+        <v>515638</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6782,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6764,7 +6797,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -6779,7 +6812,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -6802,46 +6835,46 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>7646</v>
+        <v>7393</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
       </c>
       <c r="I22" s="7">
-        <v>8911</v>
+        <v>8469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
       </c>
       <c r="N22" s="7">
-        <v>16556</v>
+        <v>15862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,46 +6886,46 @@
         <v>591</v>
       </c>
       <c r="D23" s="7">
-        <v>620108</v>
+        <v>616886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
         <v>941</v>
       </c>
       <c r="I23" s="7">
-        <v>795292</v>
+        <v>840796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="M23" s="7">
         <v>1532</v>
       </c>
       <c r="N23" s="7">
-        <v>1415401</v>
+        <v>1457682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,7 +6937,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -6919,7 +6952,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -6934,7 +6967,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -6957,46 +6990,46 @@
         <v>94</v>
       </c>
       <c r="D25" s="7">
-        <v>96013</v>
+        <v>80805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H25" s="7">
         <v>110</v>
       </c>
       <c r="I25" s="7">
-        <v>88529</v>
+        <v>73182</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7">
         <v>204</v>
       </c>
       <c r="N25" s="7">
-        <v>184542</v>
+        <v>153987</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,46 +7041,46 @@
         <v>668</v>
       </c>
       <c r="D26" s="7">
-        <v>763415</v>
+        <v>847915</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H26" s="7">
         <v>952</v>
       </c>
       <c r="I26" s="7">
-        <v>779905</v>
+        <v>644549</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M26" s="7">
         <v>1620</v>
       </c>
       <c r="N26" s="7">
-        <v>1543320</v>
+        <v>1492465</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7092,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -7074,7 +7107,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -7089,7 +7122,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -7112,46 +7145,46 @@
         <v>137</v>
       </c>
       <c r="D28" s="7">
-        <v>141887</v>
+        <v>126095</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H28" s="7">
         <v>190</v>
       </c>
       <c r="I28" s="7">
-        <v>147258</v>
+        <v>130345</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>327</v>
       </c>
       <c r="N28" s="7">
-        <v>289145</v>
+        <v>256440</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7163,46 +7196,46 @@
         <v>3239</v>
       </c>
       <c r="D29" s="7">
-        <v>3243341</v>
+        <v>3333722</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>5177</v>
       </c>
       <c r="I29" s="7">
-        <v>3688323</v>
+        <v>3581935</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M29" s="7">
         <v>8416</v>
       </c>
       <c r="N29" s="7">
-        <v>6931664</v>
+        <v>6915657</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,7 +7247,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -7229,7 +7262,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -7244,7 +7277,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
